--- a/assets/excel/exp/en/11.7.1_ENG.xlsx
+++ b/assets/excel/exp/en/11.7.1_ENG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Excele rankingujące\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Vmfgus09\os\OS-04\2. ZRÓWNOWAŻONY ROZWÓJ_AGENDA 2030_SDG\4. BIG DATA\4. Platforma dla statystyk eksp\Zmiany na witrynie eksp\Excele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CC95E-0F2F-47C7-BA49-4F2CDE445527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EE0D34-9D61-4BFC-9025-069969AC1F46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,18 +138,12 @@
     <t>Share of generally open space for public in the total area of cities [%]</t>
   </si>
   <si>
-    <t>The average share of areas that are open space for public  [%]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> City population</t>
   </si>
   <si>
     <t>Population with availability of open public spaces at a distance of up to 400m</t>
   </si>
   <si>
-    <t>The availability open space for public [%]</t>
-  </si>
-  <si>
     <t>2061011</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
   </si>
   <si>
     <t>88.0</t>
-  </si>
-  <si>
-    <t>Area of a city [km2]</t>
   </si>
   <si>
     <t>The area of land under the roads in
@@ -486,13 +477,47 @@
   </si>
   <si>
     <t>24.0</t>
+  </si>
+  <si>
+    <t>Indicator 11.7.1 Average share of the built-up area of cities that is open space for public use for all</t>
+  </si>
+  <si>
+    <t>Share of city population with access to open space in public spaces [%]</t>
+  </si>
+  <si>
+    <r>
+      <t>Area of a city [km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Fira Sans"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +535,15 @@
       <charset val="238"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Fira Sans"/>
@@ -930,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -951,13 +985,13 @@
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -966,16 +1000,16 @@
         <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -983,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5">
         <v>102</v>
@@ -998,19 +1032,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1033,19 +1067,19 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1053,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5">
         <v>266</v>
@@ -1068,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1103,19 +1137,19 @@
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1123,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5">
         <v>165</v>
@@ -1138,19 +1172,19 @@
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1158,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5">
         <v>110</v>
@@ -1173,19 +1207,19 @@
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1208,19 +1242,19 @@
         <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1243,19 +1277,19 @@
         <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1278,19 +1312,19 @@
         <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1313,19 +1347,19 @@
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1348,19 +1382,19 @@
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="J13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1368,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5">
         <v>88</v>
@@ -1383,19 +1417,19 @@
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="K14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1403,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <v>149</v>
@@ -1418,19 +1452,19 @@
         <v>2</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="J15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1438,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>262</v>
@@ -1453,19 +1487,19 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1473,7 +1507,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>120</v>
@@ -1488,19 +1522,19 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="J17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1508,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <v>301</v>
@@ -1523,19 +1557,19 @@
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1558,19 +1592,19 @@
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1593,19 +1627,19 @@
         <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="K20" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1628,19 +1662,19 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="J21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="K21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1663,19 +1697,19 @@
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
